--- a/doc/项目范围说明书v1.1.xlsx
+++ b/doc/项目范围说明书v1.1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Git\PixelCube\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1031,25 +1026,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,86 +1131,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1154,6 +1149,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1173,7 +1236,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1208,7 +1271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1243,7 +1306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,7 +1483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1430,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1445,13 +1508,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
@@ -1543,7 +1606,7 @@
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
-      <c r="E7" s="67"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1555,79 +1618,79 @@
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="60" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1640,18 +1703,18 @@
         <v>13</v>
       </c>
       <c r="D16" s="42"/>
-      <c r="E16" s="67"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
@@ -1678,148 +1741,148 @@
       <c r="C19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="D21" s="52" t="s">
+      <c r="B21" s="40"/>
+      <c r="D21" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="D22" s="43" t="s">
+      <c r="B22" s="41"/>
+      <c r="D22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="D23" s="43" t="s">
+      <c r="B23" s="41"/>
+      <c r="D23" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="D24" s="43" t="s">
+      <c r="B24" s="41"/>
+      <c r="D24" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="51"/>
+      <c r="B26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="D28" s="44" t="s">
+      <c r="B28" s="68"/>
+      <c r="D28" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="D31" s="43" t="s">
+      <c r="B31" s="41"/>
+      <c r="D31" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="D32" s="43" t="s">
+      <c r="B32" s="41"/>
+      <c r="D32" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1831,19 +1894,19 @@
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="75" t="s">
         <v>43</v>
       </c>
@@ -1851,102 +1914,102 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="47" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="47" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="47" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="47" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="47" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="47" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="47" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="47"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="47" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="47" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1954,20 +2017,20 @@
         <v>52</v>
       </c>
       <c r="B46" s="42"/>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="47"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="19" t="s">
@@ -1992,31 +2055,31 @@
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="74"/>
     </row>
     <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="74"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2075,67 +2138,41 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="74"/>
     </row>
     <row r="58" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A50:E50"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A51:E51"/>
@@ -2152,20 +2189,46 @@
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/项目范围说明书v1.1.xlsx
+++ b/doc/项目范围说明书v1.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Git\PixelCube\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="10320"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,18 +38,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成软件测试和文档整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22.5万元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本项目组所有成员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2013/12/15(Week14,Sun)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013/12/23(Week16,Mon)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LeapMotion(700元)+4480人时*50元/时+调研、材料等(300元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,6 +471,38 @@
   </si>
   <si>
     <t>旋转和放大缩小平移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祎琼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013/12/17(Week15,Tue)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013/12/14(Week14,Sat)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013/12/12(Week14,Thu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成最终测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.06万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeapMotion(700元)+792人时*50元/时+调研、材料等(300元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,6 +1043,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1034,113 +1087,80 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,74 +1169,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1236,7 +1188,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1483,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1491,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1508,29 +1460,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
+      <c r="A1" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1538,13 +1490,13 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" s="32">
         <v>41566</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E3" s="34">
         <v>41567</v>
@@ -1552,16 +1504,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" s="32">
         <v>41567</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E4" s="34">
         <v>41567</v>
@@ -1569,16 +1521,16 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" s="33">
         <v>41580</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E5" s="35">
         <v>41580</v>
@@ -1586,16 +1538,20 @@
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C6" s="33">
         <v>41616</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="35">
+        <v>41620</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
@@ -1606,577 +1562,615 @@
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="E7" s="65"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="70"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="65"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+    </row>
+    <row r="19" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="54"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="37" t="s">
+      <c r="D19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="73"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="A22" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="74"/>
+      <c r="D22" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="71"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="D24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="71"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="D25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="71"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="71"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="71"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="A21" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="D21" s="40" t="s">
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="D29" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="46"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="71"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="71"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="D32" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="71"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="D33" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="71"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="51"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="67"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="D22" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="D23" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="44"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="D24" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="44"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="44"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="44"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="37" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="68" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="D28" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="69"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="41" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="44"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="41" t="s">
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="51"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="44"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="41"/>
-      <c r="D31" s="41" t="s">
+      <c r="B49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="44"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="D32" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="44"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="71" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="74"/>
-    </row>
-    <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="74"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="7"/>
+      <c r="A53" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-    </row>
-    <row r="58" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="66"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A40:B40"/>
+  <mergeCells count="72">
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -2186,49 +2180,24 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A53:E53"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A51:E51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
